--- a/test_case/case_excel/test_cese.xlsx
+++ b/test_case/case_excel/test_cese.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8484"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>TEST_ID</t>
   </si>
@@ -37,57 +37,36 @@
   </si>
   <si>
     <t>1.打开||http://old.biaodaa.com/
-2.点击||xpath{//*[text()='登录']}
-3.输入||xpath{//*[@id="form-username"]}||15576361737
-4.输入||xpath{//*[@id="form-password"]}||123456789
+2.点击||xpath{//*[contains(text(),'请登录')]}
+3.输入||xpath{//*[@type="text"]}||15576361737
+4.输入||xpath{//*[@type="password"]}||123456789
 5.点击||xpath{//button}</t>
   </si>
   <si>
-    <t>url||http://old.biaodaa.com/index</t>
+    <t>url||http://www.biaodaa.com/#/home</t>
   </si>
   <si>
     <t>登录2</t>
   </si>
   <si>
-    <r>
-      <t>xpath{//*[@id="bs-example-navbar-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>collapse-1"]//a}||</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> [退出]</t>
-    </r>
+    <t>1.打开||http://old.biaodaa.com/
+2.点击||xpath{//*[contains(text(),'请登录')]}
+3.输入||xpath{//*[@type="text"]}||15576361737
+4.输入||xpath{//*[@type="password"]}||123456789
+6.点击||xpath{//button}</t>
+  </si>
+  <si>
+    <t>url||http://w11ww.biaodaa.com/#/home1</t>
   </si>
   <si>
     <t>登录3</t>
   </si>
   <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>登录4_end</t>
-  </si>
-  <si>
     <t>1.打开||http://old.biaodaa.com/
-2.点击||xpath{//*[text()='登录']}
-3.输入||xpath{//*[@id="form-username"]}||15576361737
-4.输入||xpath{//*[@id="form-password"]}||15576361737
-5.点击||xpath{//button}</t>
+2.点击||xpath{//*[contains(text(),'请登录')]}
+3.输入||xpath{//*[@type="text"]}||15576361737
+4.输入||xpath{//*[@type="password"]}||123456789
+7.点击||xpath{//button}</t>
   </si>
 </sst>
 </file>
@@ -95,12 +74,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +97,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -125,14 +111,92 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,125 +210,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -277,61 +249,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,121 +423,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,8 +446,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,11 +493,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,26 +532,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,149 +548,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -727,9 +699,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1079,13 +1048,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="11.5555555555556" customWidth="1"/>
     <col min="4" max="4" width="72" customWidth="1"/>
@@ -1137,10 +1106,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" ht="72" spans="1:5">
@@ -1148,33 +1117,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" ht="72" spans="1:5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/test_case/case_excel/test_cese.xlsx
+++ b/test_case/case_excel/test_cese.xlsx
@@ -39,8 +39,10 @@
     <t>1.打开||http://old.biaodaa.com/
 2.点击||xpath{//*[contains(text(),'请登录')]}
 3.输入||xpath{//*[@type="text"]}||15576361737
-4.输入||xpath{//*[@type="password"]}||123456789
-5.点击||xpath{//button}</t>
+4.输入||xpath{//*[@type="password"]}||12345678
+5.点击||xpath{//button}
+6.正常等待||2秒
+7.等待元素||xpath{//*[@id="app"]/div[2]/div/div[3]/div[1]/p[normalize-space(//text())]}||最新招标</t>
   </si>
   <si>
     <t>url||http://www.biaodaa.com/#/home</t>
@@ -52,7 +54,7 @@
     <t>1.打开||http://old.biaodaa.com/
 2.点击||xpath{//*[contains(text(),'请登录')]}
 3.输入||xpath{//*[@type="text"]}||15576361737
-4.输入||xpath{//*[@type="password"]}||123456789
+4.输入||xpath{//*[@type="password"]}||12345678
 6.点击||xpath{//button}</t>
   </si>
   <si>
@@ -65,7 +67,7 @@
     <t>1.打开||http://old.biaodaa.com/
 2.点击||xpath{//*[contains(text(),'请登录')]}
 3.输入||xpath{//*[@type="text"]}||15576361737
-4.输入||xpath{//*[@type="password"]}||123456789
+4.输入||xpath{//*[@type="password"]}||12345678
 7.点击||xpath{//button}</t>
   </si>
 </sst>
@@ -76,8 +78,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -93,42 +95,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -142,30 +108,97 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,6 +206,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,53 +235,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -249,187 +251,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,8 +448,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,56 +528,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -531,15 +542,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -548,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -560,133 +562,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1051,13 +1053,13 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="11.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="72" customWidth="1"/>
+    <col min="4" max="4" width="120.777777777778" customWidth="1"/>
     <col min="5" max="5" width="68" customWidth="1"/>
   </cols>
   <sheetData>

--- a/test_case/case_excel/test_cese.xlsx
+++ b/test_case/case_excel/test_cese.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="24345" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>TEST_ID</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>RESULT</t>
+  </si>
+  <si>
+    <t>is_sure</t>
   </si>
   <si>
     <t>登录</t>
@@ -40,12 +43,15 @@
 2.点击||xpath{//*[contains(text(),'请登录')]}
 3.输入||xpath{//*[@type="text"]}||15576361737
 4.输入||xpath{//*[@type="password"]}||12345678
-5.点击||xpath{//button}
+5.点击||xpath{//*[contains(text(),'立即登录')]}
 6.正常等待||2秒
 7.等待元素||xpath{//*[@id="app"]/div[2]/div/div[3]/div[1]/p[normalize-space(//text())]}||最新招标</t>
   </si>
   <si>
     <t>url||http://www.biaodaa.com/#/home</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
   <si>
     <t>登录2</t>
@@ -55,7 +61,7 @@
 2.点击||xpath{//*[contains(text(),'请登录')]}
 3.输入||xpath{//*[@type="text"]}||15576361737
 4.输入||xpath{//*[@type="password"]}||12345678
-6.点击||xpath{//button}</t>
+5.点击||xpath{//*[contains(text(),'立即登录')]}</t>
   </si>
   <si>
     <t>url||http://w11ww.biaodaa.com/#/home1</t>
@@ -64,11 +70,24 @@
     <t>登录3</t>
   </si>
   <si>
-    <t>1.打开||http://old.biaodaa.com/
-2.点击||xpath{//*[contains(text(),'请登录')]}
-3.输入||xpath{//*[@type="text"]}||15576361737
-4.输入||xpath{//*[@type="password"]}||12345678
-7.点击||xpath{//button}</t>
+    <t>F</t>
+  </si>
+  <si>
+    <t>创建订单</t>
+  </si>
+  <si>
+    <t>1.打开||http://s.heqi.io/site/login
+2.输入||xpath{//*[@id='supplierloginform-phone']}||13141310647
+3.输入||xpath{//*[@id='supplierloginform-password']}||123456
+4.点击||xpath{//button[@name='login-button']}
+5.正常等待||5秒
+6.点击||xpath{//a[@href='/ticket/create']}</t>
+  </si>
+  <si>
+    <t>//*[starts-with(normalize-space(text()),'关注')]</t>
+  </si>
+  <si>
+    <t>//*[contains(normalize-space(text()),'添加商品')]</t>
   </si>
 </sst>
 </file>
@@ -78,8 +97,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -93,6 +112,66 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -106,17 +185,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,8 +230,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,7 +240,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,95 +256,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,19 +270,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,31 +354,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,7 +366,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,7 +396,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,13 +414,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,85 +426,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,24 +461,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -474,30 +475,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,6 +505,48 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -550,10 +569,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,133 +581,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1050,20 +1069,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="11.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="120.777777777778" customWidth="1"/>
+    <col min="2" max="2" width="11.5583333333333" customWidth="1"/>
+    <col min="4" max="4" width="69.375" customWidth="1"/>
     <col min="5" max="5" width="68" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1079,56 +1098,85 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" ht="109" customHeight="1" spans="1:5">
+    <row r="2" ht="147" customHeight="1" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" ht="72" spans="1:5">
+    <row r="3" ht="67.5" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="4" ht="72" spans="1:5">
+    <row r="4" ht="67.5" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="81" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1147,7 +1195,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1158,14 +1206,25 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
